--- a/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6975" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="5940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPTemplate" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="PPAPCreateData" sheetId="5" r:id="rId3"/>
     <sheet name="PPAP" sheetId="6" r:id="rId4"/>
     <sheet name="APQPTemplate" sheetId="7" r:id="rId5"/>
+    <sheet name="APQPTempPlanData" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P21"/>
+  <oleSize ref="B1:K18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>TemplateName</t>
   </si>
@@ -133,6 +134,75 @@
   </si>
   <si>
     <t>Test Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>PhaseTitle</t>
+  </si>
+  <si>
+    <t>Phase1</t>
+  </si>
+  <si>
+    <t>PhaseSequence</t>
+  </si>
+  <si>
+    <t>PreEleName</t>
+  </si>
+  <si>
+    <t>SeqNo</t>
+  </si>
+  <si>
+    <t>PreReqElement</t>
+  </si>
+  <si>
+    <t>PreReqActivityName</t>
+  </si>
+  <si>
+    <t>PreReqActivitySeqNo</t>
+  </si>
+  <si>
+    <t>PreReqRole</t>
+  </si>
+  <si>
+    <t>PreReqActivity</t>
+  </si>
+  <si>
+    <t>APQP Engineer</t>
+  </si>
+  <si>
+    <t>TaskElement</t>
+  </si>
+  <si>
+    <t>TElement</t>
+  </si>
+  <si>
+    <t>TSequenceNo</t>
+  </si>
+  <si>
+    <t>Tactivity</t>
+  </si>
+  <si>
+    <t>Tsequence</t>
+  </si>
+  <si>
+    <t>LeadRole</t>
+  </si>
+  <si>
+    <t>TaskActivity</t>
+  </si>
+  <si>
+    <t>TeamRole</t>
+  </si>
+  <si>
+    <t>MileStName</t>
+  </si>
+  <si>
+    <t>MileStSeq</t>
+  </si>
+  <si>
+    <t>MileStone</t>
   </si>
 </sst>
 </file>
@@ -156,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +236,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,11 +282,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,9 +921,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -806,14 +932,145 @@
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="5940" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="5940" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPTemplate" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,18 @@
     <sheet name="PPAP" sheetId="6" r:id="rId4"/>
     <sheet name="APQPTemplate" sheetId="7" r:id="rId5"/>
     <sheet name="APQPTempPlanData" sheetId="8" r:id="rId6"/>
+    <sheet name="APQPTempBOMRole" sheetId="10" r:id="rId7"/>
+    <sheet name="APQPCreateData" sheetId="12" r:id="rId8"/>
+    <sheet name="APQPTemplateSel" sheetId="13" r:id="rId9"/>
+    <sheet name="BOMRolesandMembers" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="B1:K18"/>
+  <oleSize ref="A1:R18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>TemplateName</t>
   </si>
@@ -203,6 +207,81 @@
   </si>
   <si>
     <t>MileStone</t>
+  </si>
+  <si>
+    <t>EngRoleBOM</t>
+  </si>
+  <si>
+    <t>PurchRoleBOM</t>
+  </si>
+  <si>
+    <t>Phase2</t>
+  </si>
+  <si>
+    <t>PhaseNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 2: </t>
+  </si>
+  <si>
+    <t>MileStAuthRole</t>
+  </si>
+  <si>
+    <t>EditMileStone</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>APQPPGM</t>
+  </si>
+  <si>
+    <t>ProgramType</t>
+  </si>
+  <si>
+    <t>Type A</t>
+  </si>
+  <si>
+    <t>BusiUnit</t>
+  </si>
+  <si>
+    <t>PgmDev</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>PgmMgr</t>
+  </si>
+  <si>
+    <t>Norman Hemmings</t>
+  </si>
+  <si>
+    <t>PartNo</t>
+  </si>
+  <si>
+    <t>side plate / 2000005</t>
+  </si>
+  <si>
+    <t>TotalNoYears</t>
+  </si>
+  <si>
+    <t>Supplier APQP Template</t>
+  </si>
+  <si>
+    <t>EngineeringRole</t>
+  </si>
+  <si>
+    <t>PurchasingRole</t>
   </si>
 </sst>
 </file>
@@ -282,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -311,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -641,6 +723,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
@@ -955,126 +1073,343 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Q1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="5940" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6465" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPTemplate" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,16 @@
     <sheet name="APQPCreateData" sheetId="12" r:id="rId8"/>
     <sheet name="APQPTemplateSel" sheetId="13" r:id="rId9"/>
     <sheet name="BOMRolesandMembers" sheetId="14" r:id="rId10"/>
+    <sheet name="AuditTemplate" sheetId="15" r:id="rId11"/>
+    <sheet name="AuditCreate" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:R18"/>
+  <oleSize ref="A1:R20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>TemplateName</t>
   </si>
@@ -282,6 +284,57 @@
   </si>
   <si>
     <t>PurchasingRole</t>
+  </si>
+  <si>
+    <t>RoleUser</t>
+  </si>
+  <si>
+    <t>TempName</t>
+  </si>
+  <si>
+    <t>QuestGroup</t>
+  </si>
+  <si>
+    <t>TestAuditTemplate</t>
+  </si>
+  <si>
+    <t>Stamping Process</t>
+  </si>
+  <si>
+    <t>Audit Type</t>
+  </si>
+  <si>
+    <t>Supplier Audit</t>
+  </si>
+  <si>
+    <t>Audit Reason</t>
+  </si>
+  <si>
+    <t>New product Launch</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Na Veen ()</t>
+  </si>
+  <si>
+    <t>Audit Name</t>
+  </si>
+  <si>
+    <t>TestAudits</t>
+  </si>
+  <si>
+    <t>Audit Approver</t>
+  </si>
+  <si>
+    <t>Audit Reviewer</t>
+  </si>
+  <si>
+    <t>Audit Approver (auditapprover)</t>
+  </si>
+  <si>
+    <t>Audit Reviewer (auditreviewer)</t>
   </si>
 </sst>
 </file>
@@ -725,10 +778,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,20 +791,127 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6465" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6465" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPTemplate" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="AuditCreate" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:R20"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>TemplateName</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>Audit Reviewer (auditreviewer)</t>
+  </si>
+  <si>
+    <t>AuditTemplate</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -866,8 +869,8 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,10 +888,10 @@
         <v>97</v>
       </c>
       <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
         <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
       </c>
       <c r="G1" t="s">
         <v>100</v>
@@ -908,6 +911,9 @@
         <v>98</v>
       </c>
       <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>101</v>
       </c>
       <c r="G2" t="s">

--- a/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6465" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6525" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPTemplate" sheetId="1" r:id="rId1"/>
@@ -322,9 +322,6 @@
     <t>Audit Name</t>
   </si>
   <si>
-    <t>TestAudits</t>
-  </si>
-  <si>
     <t>Audit Approver</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>AuditTemplate</t>
+  </si>
+  <si>
+    <t>TestAuditSelfExt</t>
   </si>
 </sst>
 </file>
@@ -861,14 +861,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
@@ -888,13 +889,13 @@
         <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -908,16 +909,16 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>89</v>
       </c>
       <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6525" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6525" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPTemplate" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="BOMRolesandMembers" sheetId="14" r:id="rId10"/>
     <sheet name="AuditTemplate" sheetId="15" r:id="rId11"/>
     <sheet name="AuditCreate" sheetId="16" r:id="rId12"/>
+    <sheet name="NonConformityCreate" sheetId="17" r:id="rId13"/>
+    <sheet name="8DSubmit" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:R20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
   <si>
     <t>TemplateName</t>
   </si>
@@ -301,15 +303,9 @@
     <t>Stamping Process</t>
   </si>
   <si>
-    <t>Audit Type</t>
-  </si>
-  <si>
     <t>Supplier Audit</t>
   </si>
   <si>
-    <t>Audit Reason</t>
-  </si>
-  <si>
     <t>New product Launch</t>
   </si>
   <si>
@@ -319,15 +315,6 @@
     <t>Na Veen ()</t>
   </si>
   <si>
-    <t>Audit Name</t>
-  </si>
-  <si>
-    <t>Audit Approver</t>
-  </si>
-  <si>
-    <t>Audit Reviewer</t>
-  </si>
-  <si>
     <t>Audit Approver (auditapprover)</t>
   </si>
   <si>
@@ -338,13 +325,130 @@
   </si>
   <si>
     <t>TestAuditSelfExt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Defect</t>
+  </si>
+  <si>
+    <t>TestNC</t>
+  </si>
+  <si>
+    <t>Category 6</t>
+  </si>
+  <si>
+    <t>Fitment</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>N Reviewer</t>
+  </si>
+  <si>
+    <t>AuditType</t>
+  </si>
+  <si>
+    <t>AuditReason</t>
+  </si>
+  <si>
+    <t>AuditName</t>
+  </si>
+  <si>
+    <t>AuditApprover</t>
+  </si>
+  <si>
+    <t>AuditReviewer</t>
+  </si>
+  <si>
+    <t>ProductLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NCCategory</t>
+  </si>
+  <si>
+    <t>NCType</t>
+  </si>
+  <si>
+    <t>PartNumber</t>
+  </si>
+  <si>
+    <t>SupplierCoordinator</t>
+  </si>
+  <si>
+    <t>SupplierLocation</t>
+  </si>
+  <si>
+    <t>SupplierPlant</t>
+  </si>
+  <si>
+    <t>cpcName</t>
+  </si>
+  <si>
+    <t>cpctitle</t>
+  </si>
+  <si>
+    <t>cpcEmail</t>
+  </si>
+  <si>
+    <t>cpcPhoneNUmber</t>
+  </si>
+  <si>
+    <t>supTeamChampTitle</t>
+  </si>
+  <si>
+    <t>supTeamChampName</t>
+  </si>
+  <si>
+    <t>supTeamChampPhoneNumber</t>
+  </si>
+  <si>
+    <t>supTeamAddlnMemberName</t>
+  </si>
+  <si>
+    <t>supTeamAddlnMemberTitle</t>
+  </si>
+  <si>
+    <t>supTeamAddlnMemberEmail</t>
+  </si>
+  <si>
+    <t>supTeamAddlnMemberPhoneNumber</t>
+  </si>
+  <si>
+    <t>CustomerA</t>
+  </si>
+  <si>
+    <t>CustTitle</t>
+  </si>
+  <si>
+    <t>cust@gmail.com</t>
+  </si>
+  <si>
+    <t>SupplierA</t>
+  </si>
+  <si>
+    <t>SupTitle</t>
+  </si>
+  <si>
+    <t>SupplierB</t>
+  </si>
+  <si>
+    <t>supTeamChampEmail</t>
+  </si>
+  <si>
+    <t>supb@gmail.com</t>
+  </si>
+  <si>
+    <t>supa@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +464,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +515,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -414,10 +537,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -451,8 +578,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -860,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -872,56 +1003,263 @@
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
       <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
       </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
       </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <v>9999999999</v>
+      </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
+        <v>133</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2">
+        <v>9999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2">
+        <v>9999999999</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1242,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>

--- a/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/QLMTestData.xlsx
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
